--- a/Leerplanillacupos/output_010324.xlsx
+++ b/Leerplanillacupos/output_010324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Python\planillaCupos\Leerplanillacupos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DD2F2F-7E39-4295-9594-544C8E001D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4D4D1D-7CF7-4281-B606-B8D8E22F604D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="345" windowWidth="21600" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,10 +424,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,10 +734,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection sqref="A1:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +748,8 @@
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -796,10 +803,10 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -825,10 +832,10 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -854,10 +861,10 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -883,10 +890,10 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -912,10 +919,10 @@
       <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -941,10 +948,10 @@
       <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -970,10 +977,10 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -999,10 +1006,10 @@
       <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1028,10 +1035,10 @@
       <c r="G10" t="s">
         <v>44</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1057,10 +1064,10 @@
       <c r="G11" t="s">
         <v>44</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1086,10 +1093,10 @@
       <c r="G12" t="s">
         <v>44</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1115,10 +1122,10 @@
       <c r="G13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1144,10 +1151,10 @@
       <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1173,10 +1180,10 @@
       <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1202,10 +1209,10 @@
       <c r="G16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1231,10 +1238,10 @@
       <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1260,10 +1267,10 @@
       <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1289,10 +1296,10 @@
       <c r="G19" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1318,10 +1325,10 @@
       <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1347,10 +1354,10 @@
       <c r="G21" t="s">
         <v>44</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1376,10 +1383,10 @@
       <c r="G22" t="s">
         <v>44</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1405,10 +1412,10 @@
       <c r="G23" t="s">
         <v>44</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1434,10 +1441,10 @@
       <c r="G24" t="s">
         <v>44</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1463,10 +1470,10 @@
       <c r="G25" t="s">
         <v>44</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1492,10 +1499,10 @@
       <c r="G26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1521,10 +1528,10 @@
       <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1550,10 +1557,10 @@
       <c r="G28" t="s">
         <v>44</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1579,10 +1586,10 @@
       <c r="G29" t="s">
         <v>44</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1608,10 +1615,10 @@
       <c r="G30" t="s">
         <v>44</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1637,10 +1644,10 @@
       <c r="G31" t="s">
         <v>13</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1666,10 +1673,10 @@
       <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1695,10 +1702,10 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1724,10 +1731,10 @@
       <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1753,10 +1760,10 @@
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1782,14 +1789,16 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="2" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Leerplanillacupos/output_010324.xlsx
+++ b/Leerplanillacupos/output_010324.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -537,10 +541,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K2" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="3">
@@ -590,10 +592,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K3" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="4">
@@ -643,10 +643,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K4" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="5">
@@ -696,10 +694,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K5" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="6">
@@ -749,10 +745,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K6" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="7">
@@ -802,10 +796,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K7" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="8">
@@ -855,10 +847,8 @@
           <t>26</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K8" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="9">
@@ -908,10 +898,8 @@
           <t>28</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K9" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="10">
@@ -961,10 +949,8 @@
           <t>25</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K10" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="11">
@@ -1014,10 +1000,8 @@
           <t>32</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K11" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="12">
@@ -1067,10 +1051,8 @@
           <t>31</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K12" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="13">
@@ -1120,10 +1102,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K13" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="14">
@@ -1173,10 +1153,8 @@
           <t>29</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K14" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="15">
@@ -1226,10 +1204,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K15" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="16">
@@ -1279,10 +1255,8 @@
           <t>29</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K16" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="17">
@@ -1332,10 +1306,8 @@
           <t>35</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K17" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="18">
@@ -1385,10 +1357,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K18" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="19">
@@ -1438,10 +1408,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K19" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="20">
@@ -1491,10 +1459,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K20" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="21">
@@ -1544,10 +1510,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K21" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="22">
@@ -1597,10 +1561,8 @@
           <t>32</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K22" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="23">
@@ -1650,10 +1612,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K23" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="24">
@@ -1703,10 +1663,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K24" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="25">
@@ -1756,10 +1714,8 @@
           <t>30</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K25" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="26">
@@ -1809,10 +1765,8 @@
           <t>35</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K26" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="27">
@@ -1862,10 +1816,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K27" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="28">
@@ -1915,10 +1867,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K28" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="29">
@@ -1968,10 +1918,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K29" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="30">
@@ -2021,10 +1969,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K30" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="31">
@@ -2074,10 +2020,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K31" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="32">
@@ -2127,10 +2071,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K32" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="33">
@@ -2180,10 +2122,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K33" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="34">
@@ -2233,10 +2173,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K34" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="35">
@@ -2286,10 +2224,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K35" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="36">
@@ -2339,10 +2275,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K36" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
     <row r="37">
@@ -2392,10 +2326,8 @@
           <t>æ</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>010324</t>
-        </is>
+      <c r="K37" s="2" t="n">
+        <v>45352</v>
       </c>
     </row>
   </sheetData>
